--- a/m2/UnityProject/Assets/Scene/9000_Test/doc/MainControl.xlsx
+++ b/m2/UnityProject/Assets/Scene/9000_Test/doc/MainControl.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4346FA40-DBE7-4A12-A732-60C3BE5B62D0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="true"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF0DF54-28FF-4BD1-8E18-582099C3094A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="config" sheetId="6" r:id="rId2"/>
-    <sheet name="setting.ini" sheetId="5" r:id="rId3"/>
-    <sheet name="help" sheetId="4" r:id="rId4"/>
-    <sheet name="template-statefunc" sheetId="3" r:id="rId5"/>
-    <sheet name="template-source" sheetId="2" r:id="rId6"/>
+    <sheet name="help" sheetId="10" r:id="rId14"/>
+    <sheet name="setting.ini" sheetId="9" r:id="rId13"/>
+    <sheet name="template-statefunc" sheetId="8" r:id="rId12"/>
+    <sheet name="template-source" sheetId="7" r:id="rId11"/>
+    <sheet name="config" sheetId="6" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr calcId="125725" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>thumbnail</t>
   </si>
@@ -498,8 +499,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/07/16 9:08:39
-; * pssgEditor version : 0.7.0.9a6cf3a02284fb1ede951b9a71d62db3cd613517
+    <t xml:space="preserve">; The setting was created automatically. 2018/07/26 20:20:12
+; * pssgEditor version : 0.7.0.d2b599dd6eb334f8dad799fa43d1c6a63dbbc1d2
 psggfile=@@@
 MainControl.psgg
 @@@
@@ -549,6 +550,322 @@
 comment_block_height=45
 line_space=-4
 </t>
+  </si>
+  <si>
+    <t>!pos</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>brcond</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>44,229</t>
+  </si>
+  <si>
+    <t>69,702</t>
+  </si>
+  <si>
+    <t>556,72</t>
+  </si>
+  <si>
+    <t>796,75</t>
+  </si>
+  <si>
+    <t>275,75</t>
+  </si>
+  <si>
+    <t>1067,84</t>
+  </si>
+  <si>
+    <t>535,425</t>
+  </si>
+  <si>
+    <t>217,429</t>
+  </si>
+  <si>
+    <t>833,432</t>
+  </si>
+  <si>
+    <t>1272,613</t>
+  </si>
+  <si>
+    <t>1263,353</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/10/13 20:20:06
+; * pssgEditor version : 0.12.1363.f6ceb30f93e348ddc47a9eeacdea10a54ab41447
+psggfile=@@@
+MainControl.psgg
+@@@
+xlsfile=@@@
+MainControl.xlsx
+@@@
+guid=@@@
+87c2d2b7-88c5-4a91-87a7-852f8636dc3b
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Initilized
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":44,"y":229}},{"Key":"S_END","Value":{"x":69,"y":702}},{"Key":"S_WAIT","Value":{"x":556,"y":72}},{"Key":"S_CAM_T1","Value":{"x":796,"y":75}},{"Key":"S_SETUP_STAGE1","Value":{"x":275,"y":75}},{"Key":"S_LAUNCHSTART","Value":{"x":1067,"y":84}},{"Key":"S_SETUP_STAGE2","Value":{"x":535,"y":425}},{"Key":"S_DEBUG","Value":{"x":217,"y":429}},{"Key":"S_WAIT_TIMEOUT","Value":{"x":833,"y":432}},{"Key":"S_SETUP_STAGE3","Value":{"x":1272,"y":613}},{"Key":"S_GAMEOVER","Value":{"x":1263,"y":353}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+Code %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=0
+option_delete_br_string=0
+option_delete_bracket_string=0
+option_delete_s_state_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-4
+</t>
+  </si>
+  <si>
+    <t>:output=MainControl_created.cs
+::tempfunc=template-func.txt
+:enc=utf-8
+::
+public partial class MainControl : StateManager {
+    public void Start()
+    {
+        Goto(S_START);
+    }
+    $contents2$
+}
+</t>
+  </si>
+  <si>
+    <t>/*
+    [[state]]
+    [[state-cmt]]
+*/
+void [[state]](bool bFirst)
+{
+    if (bFirst)
+    {
+        [[init]]
+    }
+    [[update]]
+    &lt;&lt;&lt;?wait
+    if (![[wait]]) return;
+    &gt;&gt;&gt;
+    [[post_wait]]
+    [[branch]]
+    &lt;&lt;&lt;?nextstate        
+    if (!HasNextState())
+    {
+        SetNextState([[nextstate]]);
+    }
+    &gt;&gt;&gt;
+    if (HasNextState())
+    {
+        &lt;&lt;&lt;?nowait
+            NoWait();
+        &gt;&gt;&gt;
+        GoNextState();
+    }
+}
+</t>
+  </si>
+  <si>
+    <t>[setting]
+converter=psggConverterLib.dll
+psgg=MainControl.psgg
+xls=MainControl.xlsx
+sub_src=MainControl.cs
+gen_src=MainControl_created.cs
+manager_src=StateManager.cs
+manager_dir=base
+template_src=template-source.txt
+template_func=template-statefunc.txt
+help=help.ini
+[setupinfo]
+lang=c#
+framework=
+prefix=Main
+xlsdir=C:\Users\gea01\Documents\psgg\samples\EscapeFromMars\m2\UnityProject\Assets\Scene\9000_Test\doc
+gendir=C:\Users\gea01\Documents\psgg\samples\EscapeFromMars\m2\UnityProject\Assets\Scene\9000_Test\sc
+genrdir=..\sc
+[jpn]
+title=C# サンプル 1
+detail=@@@
+C# 用のステートマシンを作成します。
+# ドキュメント用フォルダ
+   ステート図ファイルとEditor起動用ショートカットを格納
+      C:\Users\gea01\Documents\psgg\samples\EscapeFromMars\m2\UnityProject\Assets\Scene\9000_Test\doc
+  以下のファイルを作成します。
+      MainControl.pssg   --- PSSG Editorで次のエクセルファイルを開く。
+      MainControl.xlsx   --- ステート図格納用Excelファイル。PSSG Editorが編集。
+# ソース用フォルダ　
+　PSSG Editorが生成ソースファイル、ユーザ実装ソースファイル、及び管理クラスファイルを格納
+      C:\Users\gea01\Documents\psgg\samples\EscapeFromMars\m2\UnityProject\Assets\Scene\9000_Test\sc
+  以下のファイルが作成されます。
+      MainControl_created.cs  --- Excelファイルからの変換ソースコード。変換プロセスの度に上書きされる。
+                                        ※生成直後は関数なしのクラス定義のみ
+     MainControl.cs          --- ユーザ実装用　（ここにプログラムを書く！）
+                                        ※生成直後は関数なしのクラス定義のみ
+# 共通管理クラスファイル
+　以下に作成されます。
+      C:\Users\gea01\Documents\psgg\samples\EscapeFromMars\m2\UnityProject\Assets\Scene\9000_Test\sc/base/StateManager.cs
+注意 : 既に同じ名前でファイルがある場合、生成されません。
+　　　 削除してから生成してください。
+記 2018.7.7
+@@@
+[en]
+title=C# Sample 1
+detail=@@@
+This dialog will create files for a state machine.
+# Document Folder 
+　This folder will contain a state chart file and the shortcut of the editor.
+      C:\Users\gea01\Documents\psgg\samples\EscapeFromMars\m2\UnityProject\Assets\Scene\9000_Test\doc
+  File:
+      MainControl.pssg  --- PSSG Editor opens the below excel file.
+      MainControl.xlsx  --- Excel File that has a state chart. PSSG Editor edits this file.
+# Source Folder 
+   This folder will contain a source file generated by PSSG Editor, a user implemetation source file, and a manager source file.
+      C:\Users\gea01\Documents\psgg\samples\EscapeFromMars\m2\UnityProject\Assets\Scene\9000_Test\sc
+　File:
+      MainControl_created.cs   -- PSSG Editor will convert from the excel file to this file. This file will overwriten whenever using the converting process of PSSG Editor.
+                                        * The file has only a class define without methods immediately after this creation.
+      MainControl.cs　　　　　 -- For implementation. (You have to write program in this file!!)
+                                        * The file has only class define without methods immediately after this creation. 
+# Common State Manager Class File
+  File:
+      C:\Users\gea01\Documents\psgg\samples\EscapeFromMars\m2\UnityProject\Assets\Scene\9000_Test\sc/base/StateManager.cs 
+NOTE : If the same name files exists, the file will not be created.
+       Please delete the same name files ahead of the creation.
+Wrote 2018.7.7
+@@@
+</t>
+  </si>
+  <si>
+    <t>; -----
+; 項目説明
+; -----
+[state]
+jpn=@@@
+ステート名を指定する。
+英文字、数字、アンダーバーで構成される。
+先頭は英文字およびアンダーバー。
+@@@
+en=@@@
+Specify a state name.
+The state name consits of alphabet, number and underbar except that the head characther should be alphabet or a underbar.
+@@@
+[thumbnail]
+jpn=@@@
+説明用のイメージを指定する。
+@@@
+en=@@@
+Specify a image for explanation of this state.
+@@@
+[init]
+jpn=@@@
+初期化用処理を指定する。
+@@@
+en=@@@
+Specify a initial process.
+@@@
+[update]
+jpn=@@@
+更新処理を指定する。
+@@@
+en=@@@
+Specify a update process.
+@@@
+[wait]
+jpn=@@@
+待ち条件を指定する。
+true時にループを解除する。
+@@@
+en=@@@
+Specify a waiting condition.
+Release the loop if the condition is true.
+@@@
+[post_wait]
+jpn=@@@
+'wait'後の処理を指定する。
+@@@
+en=@@@
+Specify the post process after 'wait'.
+@@@
+[branch]
+jpn=@@@
+分岐処理を指定する。
+１行に一つの分岐命令を書く。
+GUIにより上書きされるため引数は適当に指定する。
+例）
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+en=@@@
+Specify branch functions.
+Each line has a branch function.
+Specify a tentavie parameter for each branch function because GUI overwrites the parameter.
+i.e)
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+[nextstate]
+jpn=@@@
+次に実行するステートを指定する。
+@@@
+en=@@@
+Specify the next state to be executed.
+@@@
+[nowait]
+jpn=@@@
+次のステートへ同期待ちをせず実行する時に 'yes'を指定する。
+同期待ち時には何も指定しない。
+@@@
+en=@@@
+Specify 'yes' if the next state will be execute without a sync wait.
+Do not specify any word wheh the next state will be execute with a sync wait.
+@@@
+[!dir]
+jpn=@@@
+システムがステートのディレクトリ指定に使用。
+@@@
+en=@@@
+System uses this for the directory path of the state.
+@@@
+[!uuid]
+jpn=@@@
+システムがステートのuuid指定に使用。
+@@@
+en=@@@
+System uses this for the uuid of the state.
+@@@</t>
   </si>
 </sst>
 </file>
@@ -637,13 +954,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -659,43 +976,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59996337778862885"/>
+        <fgColor theme="7" tint="0.59996337778863"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.39994506668294"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.14996795556505"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39994506668294322"/>
+        <fgColor theme="7" tint="0.39994506668294"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.79998168889431"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,101 +1058,101 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="1" xfId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="6" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="4" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="5" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1123,13 +1440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="false" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
@@ -1137,7 +1454,7 @@
     <col min="1" max="16384" width="15.625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="144.75" customHeight="1">
+    <row r="1" s="7" customFormat="true" ht="144.75" customHeight="true">
       <c r="A1" s="16"/>
       <c r="B1" s="16" t="s">
         <v>0</v>
@@ -1155,7 +1472,7 @@
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1">
+    <row r="2" s="3" customFormat="true">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>10</v>
@@ -1197,7 +1514,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" ht="56.25">
+    <row r="3" s="6" customFormat="true" ht="56.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>21</v>
@@ -1239,7 +1556,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="9" customFormat="1" ht="18.75" customHeight="1">
+    <row r="4" s="9" customFormat="true" ht="18.75" customHeight="true">
       <c r="A4" s="8"/>
       <c r="B4" s="8" t="s">
         <v>30</v>
@@ -1279,7 +1596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="10" customFormat="1">
+    <row r="5" s="10" customFormat="true">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -1295,7 +1612,7 @@
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
     </row>
-    <row r="6" spans="1:14" s="10" customFormat="1" ht="18.75" customHeight="1">
+    <row r="6" s="10" customFormat="true" ht="18.75" customHeight="true">
       <c r="A6" s="19"/>
       <c r="B6" s="19" t="s">
         <v>31</v>
@@ -1325,7 +1642,7 @@
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
     </row>
-    <row r="7" spans="1:14" s="10" customFormat="1">
+    <row r="7" s="10" customFormat="true">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -1341,7 +1658,7 @@
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
     </row>
-    <row r="8" spans="1:14" s="10" customFormat="1" ht="18.75" customHeight="1">
+    <row r="8" s="10" customFormat="true" ht="18.75" customHeight="true">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
         <v>38</v>
@@ -1361,7 +1678,7 @@
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
     </row>
-    <row r="9" spans="1:14" s="10" customFormat="1">
+    <row r="9" s="10" customFormat="true">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -1377,7 +1694,7 @@
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
     </row>
-    <row r="10" spans="1:14" s="10" customFormat="1" ht="37.5">
+    <row r="10" s="10" customFormat="true" ht="37.5">
       <c r="A10" s="19"/>
       <c r="B10" s="19" t="s">
         <v>40</v>
@@ -1403,7 +1720,7 @@
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
     </row>
-    <row r="11" spans="1:14" s="10" customFormat="1">
+    <row r="11" s="10" customFormat="true">
       <c r="A11" s="19"/>
       <c r="B11" s="19" t="s">
         <v>1</v>
@@ -1421,7 +1738,7 @@
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
     </row>
-    <row r="12" spans="1:14" s="10" customFormat="1">
+    <row r="12" s="10" customFormat="true">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -1437,7 +1754,7 @@
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
     </row>
-    <row r="13" spans="1:14" s="10" customFormat="1" ht="93.75">
+    <row r="13" s="10" customFormat="true" ht="93.75">
       <c r="A13" s="19"/>
       <c r="B13" s="19" t="s">
         <v>45</v>
@@ -1457,113 +1774,155 @@
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
     </row>
-    <row r="14" spans="1:14" s="12" customFormat="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21" t="s">
+    <row r="14" s="10" customFormat="true">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+    </row>
+    <row r="15" s="12" customFormat="true">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-    </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-    </row>
-    <row r="16" spans="1:14" s="13" customFormat="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-    </row>
-    <row r="17" spans="1:14" s="13" customFormat="1">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+    </row>
+    <row r="16" s="1" customFormat="true" ht="18.75" customHeight="true">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+    </row>
+    <row r="17" s="13" customFormat="true">
       <c r="A17" s="25"/>
       <c r="B17" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+    </row>
+    <row r="18" s="13" customFormat="true">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25" t="s">
+      <c r="C18" s="25"/>
+      <c r="D18" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E18" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F18" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G18" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H18" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I18" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J18" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K18" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L18" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="M17" s="25" t="s">
+      <c r="M18" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="N17" s="25" t="s">
+      <c r="N18" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="13" customFormat="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
+    <row r="19" s="13" customFormat="true">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="N19" s="25" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1572,103 +1931,72 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BEF82D-DF82-4062-97DC-3527C309E84D}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07410FD8-F2C5-46E3-939A-DD1C937C66C7}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="15" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE04EF4A-862C-438D-B510-FF5DF3F6511F}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="15" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679AF599-0CF6-402B-BD3E-6F7784099CB5}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="15" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E0A0DC-144C-4C6D-8E34-21F7E7848054}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="15" t="s">
-        <v>64</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>